--- a/medicine/Psychotrope/Joint_(cigarette)/Joint_(cigarette).xlsx
+++ b/medicine/Psychotrope/Joint_(cigarette)/Joint_(cigarette).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un joint est une cigarette roulée à la main avec du papier à cigarette et un bout de carton roulé sur lui-même en guise de filtre. Ordinairement composé uniquement de cannabis, un joint peut aussi contenir d'autres substances psychotropes possiblement diluées.
 Il existe plusieurs manières de le confectionner : avec un « tonc », un morceau de carton roulé sur lui même ou avec un bout de tabac comme filtre (technique du marocco, principalement en Europe ou en Afrique du Nord) ou même sans filtre (principalement en Amérique). Au moment du roulage, on veille généralement à ce que la fin du joint ne soit rempli que du tabac afin de ne gaspiller que celui-ci.
@@ -513,10 +525,12 @@
           <t>Étymologie et vocabulaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot vient de l'argot américain « joint » désignant initialement l'annexe d'un bâtiment (issu du français « joint »), puis un lieu de consommation (tout spécialement d'opium), avant de prendre également son sens de cigarette de cannabis médicinale.
-On le retrouve sous des appellations variées : « bed », « bédo »,  « bedo », « bogz », « buzz », « cône » (allusion à la géométrie de ce type de cigarettes), « oinj » (verlan de  joint), « pétard », « pet », « tarpé » (verlan de pétard), « tamien » (terme lyonnais), « kmz », « spliff » (cf « eazy skanking » de Bob Marley), « stick / stickos (bâton en anglais)[1] », « teh ».
+On le retrouve sous des appellations variées : « bed », « bédo »,  « bedo », « bogz », « buzz », « cône » (allusion à la géométrie de ce type de cigarettes), « oinj » (verlan de  joint), « pétard », « pet », « tarpé » (verlan de pétard), « tamien » (terme lyonnais), « kmz », « spliff » (cf « eazy skanking » de Bob Marley), « stick / stickos (bâton en anglais) », « teh ».
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Confection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cannabis se fume sous sa forme de résine ou d'herbe, mélangé à du tabac (ou autres herbes sans nicotine), ce dernier compose environ 30 % du mélange et facilite la combustion. Le cannabis sous forme d'herbe peut aussi être fumé pur. Le haschich et le skuff sont tous deux de la résine végétale.
 L'herbe est généralement considérée par les consommateurs comme meilleure que la résine, principalement à cause des « produits de coupe » ajoutés à la résine. Elle est également généralement plus chère que le haschich, bien que dans d'autres pays elle coûte au contraire moins cher.
@@ -582,27 +598,102 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blunt
-Un blunt est un joint de marijuana traditionnellement roulé dans un cigare de marque Phillies Blunt (d'où il tire son nom), que l'on ouvre avec une lame de rasoir, avant de le vider pour remplacer le tabac par l'herbe. Le blunt est finalement refermé en humidifiant la feuille de tabac et en recollant les bords. Un blunt désigne également un joint de marijuana roulé avec une feuille de tabac brut ou une feuille de tabac recomposé et aromatisé[2], lui donnant ainsi un aspect de cigare. Les feuilles de blunts aromatisés sont aujourd'hui interdites à la vente dans de nombreux pays européens[2] mais autorisées en France[3].
-Stick
-En Amérique, il est de coutume de rouler directement le cannabis avec une feuille de papier, il est donc fumé sans mélange de tabac. Ce joint est fin et s'appelle stick ; par extension, les joints de la même forme (avec ou sans tabac) prennent ce nom.
-Mélanges
-Parfois, afin d'augmenter les effets, d’autres modes de consommation sont utilisés avec du cannabis qui est mélangé à diverses autres drogues.
-L'appellation « double zéro » désigne un cannabis qui est issu de la toute première passe de tamisage (d'où le nom 00). Cependant, s'il est déjà presque impossible d'en trouver au Maroc ou en Hollande, le double zéro vendu en France au marché noir est bien souvent une dénomination pour un haschisch coupé à une autre drogue, notamment à l'opium[2]
-Marijuana + haschisch + Tabac = « Royal », « Menthe-Chocolat », « Bâtard » ou « Jungle »[2], « Salade » au Québec, et « Mariachi » en Espagne ou encore « Jambon-beurre » en Belgique
+          <t>Blunt</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un blunt est un joint de marijuana traditionnellement roulé dans un cigare de marque Phillies Blunt (d'où il tire son nom), que l'on ouvre avec une lame de rasoir, avant de le vider pour remplacer le tabac par l'herbe. Le blunt est finalement refermé en humidifiant la feuille de tabac et en recollant les bords. Un blunt désigne également un joint de marijuana roulé avec une feuille de tabac brut ou une feuille de tabac recomposé et aromatisé, lui donnant ainsi un aspect de cigare. Les feuilles de blunts aromatisés sont aujourd'hui interdites à la vente dans de nombreux pays européens mais autorisées en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joint_(cigarette)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joint_(cigarette)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Autres formes de consommation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Stick</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Amérique, il est de coutume de rouler directement le cannabis avec une feuille de papier, il est donc fumé sans mélange de tabac. Ce joint est fin et s'appelle stick ; par extension, les joints de la même forme (avec ou sans tabac) prennent ce nom.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joint_(cigarette)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joint_(cigarette)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Autres formes de consommation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mélanges</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Parfois, afin d'augmenter les effets, d’autres modes de consommation sont utilisés avec du cannabis qui est mélangé à diverses autres drogues.
+L'appellation « double zéro » désigne un cannabis qui est issu de la toute première passe de tamisage (d'où le nom 00). Cependant, s'il est déjà presque impossible d'en trouver au Maroc ou en Hollande, le double zéro vendu en France au marché noir est bien souvent une dénomination pour un haschisch coupé à une autre drogue, notamment à l'opium
+Marijuana + haschisch + Tabac = « Royal », « Menthe-Chocolat », « Bâtard » ou « Jungle », « Salade » au Québec, et « Mariachi » en Espagne ou encore « Jambon-beurre » en Belgique
 Marijuana + haschisch = « Royal  Pur »
 Marijuana + haschisch + huile de cannabis = « Kebab complet »
 Haschich + Kif + Tabac = « Bellati »
 Haschich + cocaïne = « V.I.P », « Speed » ou encore « Triple zéro »
-Haschich + opium = « Zéro-Zéro »[2]
+Haschich + opium = « Zéro-Zéro »
 Haschich + opium + caféine = « Frank Zappa »
 Marijuana + cocaïne = « Space Skunk » ou « Juicy » ou « Joint de riche » au Québec
 Marijuana + méthamphétamine = « Jig-A-Loo »
-Marijuana + amphétamine = « Expresso », « Trip Grass »[2], « Trip Shit »[2]
-Marijuana + héroïne ou opium = « Atom Bomb »[2], « Thaï Stick »[2]
+Marijuana + amphétamine = « Expresso », « Trip Grass », « Trip Shit »
+Marijuana + héroïne ou opium = « Atom Bomb », « Thaï Stick »
 Marijuana + Poppers = « Le Marquis », En référence au Roi Pestre
-Cannabis + crack = « Bouddha »[2], « Chewie »[2], « Grimmie »[2]
-Cannabis + PCP = « Supercool »[2] ou « Wet »
+Cannabis + crack = « Bouddha », « Chewie », « Grimmie »
+Cannabis + PCP = « Supercool » ou « Wet »
 Marijuana + Cognac = « Pétard du Roi » En référence au Roi Heenok
 Marijuana + Kétamine = « J-F »
 Marijuana + Splenda = « B.S. », acronyme signifiant « Bud and Splenda »
@@ -610,31 +701,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Joint_(cigarette)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Joint_(cigarette)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La consommation de joints de cannabis peut avoir des effets néfastes notamment sur les plans psychiatriques, respiratoires et cardiovasculaires.
 </t>
